--- a/finetuning/it_datasets/it_dataset/it_msaken_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_msaken_dataset.xlsx
@@ -654,9 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in msaken and looking for somewhere to stay, check out Msaken located at PHGJ+63H Msaken, Kazmet, M'saken. 
-This top-rated destination is perfect for Residence lovers and offers a range of Residence to choose from. 
-With a rating of 5, it's a must-visit spot. To get there, use these GPS coordinates: 35.72917, 10.58082. For more details, visit their website at https://plateforme.freelance.com/inscription/freelance/email or call them at 25 407 484.</t>
+          <t>Msaken is a residence located in Msaken (Tunisia), with coordinates (35.72917, 10.58082). The residence has a rating of 5 and offers a website for further information.</t>
         </is>
       </c>
     </row>
@@ -759,7 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in Msaken and looking for a comfortable place to stay, check out Msaken, located at PHGJ+63H Msaken, Kazmet, M'saken. This top-rated residence offers a cozy and convenient stay for travelers and locals alike. With a rating of 5, it's a highly recommended choice. To get there, use these GPS coordinates: 35.72917, 10.58082. For more details, visit their website at https://plateforme.freelance.com/inscription/freelance/email or call them at 25 407 484.</t>
+          <t>Msaken, a notable residence situated in PHGJ+63H Msaken, Kazmet, M'saken, offers a serene and comfortable stay. With a 5-star rating and 3 reviews, it is conveniently located at (35.72917, 10.58082). Whether seeking a relaxing getaway or a convenient base for exploring Msaken, this residence is an ideal choice.</t>
         </is>
       </c>
     </row>
@@ -854,7 +852,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in msaken and looking for something fun to do, check out Sabghet sidi el hannie located at FFRW+G69 Sabghet sidi el hannie, Msaken. This top-rated destination is perfect for Reserve naturelle lovers. With a rating of 5, it's a must-visit spot. To get there, go to these GPS coordinates: 35.72917, 10.58082.</t>
+          <t>Sabghet sidi el hannie is a natural reserve located in Msaken, Tunisia. It offers a serene and picturesque environment for visitors to explore and appreciate the beauty of nature. With its convenient location at (35.72917, 10.58082), this reserve is easily accessible for those seeking a peaceful retreat or an opportunity to immerse themselves in the natural world.</t>
         </is>
       </c>
     </row>
@@ -961,9 +959,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in msaken and looking for a great Restaurant, check out Restaurant el baraka route de msaken located at PM78+VMJ Restaurant el baraka route de msaken, Ouardanine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 35.714883160537, 10.66716619677. For more details, visit their website at https://www.facebook.com/moujahed.tounes.1%3Fmibextid%3DZbWKwL or call them at 53 807 599.</t>
+          <t>Located on the route de msaken in Ouardanine, Restaurant el baraka is highly rated (5/5 stars) by 3 reviewers. It offers a wide range of dining options and is open daily from 7am to midnight (closed on Sundays). You can find more information about the restaurant and its menu on its Facebook page: https://www.facebook.com/moujahed.tounes.1%3Fmibextid%3DZbWKwL</t>
         </is>
       </c>
     </row>
